--- a/1. 论文阅读/2.组内交流/2024-2025第一学期学术交流/2024-2025学年第一学期学术交流.xlsx
+++ b/1. 论文阅读/2.组内交流/2024-2025第一学期学术交流/2024-2025学年第一学期学术交流.xlsx
@@ -85,6 +85,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Afective Polarization and</t>
     </r>
     <r>
@@ -1332,7 +1338,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1514,7 +1520,9 @@
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>11.18</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
